--- a/output/VaxCovgDisparitiesFindingsTables.xlsx
+++ b/output/VaxCovgDisparitiesFindingsTables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mreitsma/COVID/vaccination_analysis/KFF Analysis/vaccination_coverage_by_race/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mreitsma/COVID/vaccination_analysis/KFF Analysis/sccosmo/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA4DFB2-D6A5-3E45-9622-02A74DB0074E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F41DA-BD71-8241-9083-3E0A0E4943D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17480" yWindow="-18100" windowWidth="28800" windowHeight="15840" xr2:uid="{01FCF792-AB8B-4434-B543-33A81C289FC0}"/>
   </bookViews>
@@ -407,6 +407,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,7 +417,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,7 +734,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,26 +746,26 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="13" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
@@ -816,16 +816,16 @@
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>64.851810121837701</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>65.514744523239202</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>51.289696566784698</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <v>63.259834515253601</v>
       </c>
       <c r="F3" t="s">
@@ -1402,7 +1402,7 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
@@ -3309,13 +3309,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -3338,16 +3338,16 @@
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>64.851810121837701</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>65.514744523239202</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>51.289696566784698</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <v>63.259834515253601</v>
       </c>
       <c r="F3" t="s">
@@ -3358,16 +3358,16 @@
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>63.626401812874001</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="13">
         <v>64.561935164943307</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="13">
         <v>49.944342473631401</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <v>61.2403593787365</v>
       </c>
       <c r="F4" t="s">
